--- a/com.supermarket/src/main/resources/ExcelFiles/LoginData.xlsx
+++ b/com.supermarket/src/main/resources/ExcelFiles/LoginData.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prashoy/Desktop/project1/src/main/resources/ExcelFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prashoy/git/com.supermarket/com.supermarket/src/main/resources/ExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLoginCredentials" sheetId="1" r:id="rId1"/>
-    <sheet name="InvalidLoginCredentials" sheetId="2" r:id="rId2"/>
+    <sheet name="DataProviderLogin" sheetId="3" r:id="rId2"/>
+    <sheet name="InvalidLoginCredentials" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>admin</t>
   </si>
@@ -46,6 +47,18 @@
   </si>
   <si>
     <t>anisa</t>
+  </si>
+  <si>
+    <t>aaaa</t>
+  </si>
+  <si>
+    <t>ddd</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>cvv</t>
   </si>
 </sst>
 </file>
@@ -368,7 +381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -396,6 +409,53 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
